--- a/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -735,7 +735,7 @@
     <t>ddccParameters</t>
   </si>
   <si>
-    <t xml:space="preserve">Parameters {https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCGenerateHealthCertificateParameters}
+    <t xml:space="preserve">Parameters {http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCGenerateHealthCertificateParameters}
 </t>
   </si>
   <si>

--- a/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2811" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2810" uniqueCount="235">
   <si>
     <t>Path</t>
   </si>
@@ -459,7 +459,7 @@
     <t>An entry in a bundle resource - will either contain a resource or information about a resource (transactions and history only).</t>
   </si>
   <si>
-    <t xml:space="preserve">value:resource}
+    <t xml:space="preserve">profile:resource.resolve()}
 </t>
   </si>
   <si>
@@ -735,17 +735,8 @@
     <t>ddccParameters</t>
   </si>
   <si>
-    <t xml:space="preserve">Parameters {http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCGenerateHealthCertificateParameters}
-</t>
-  </si>
-  <si>
-    <t>Operation Request or Response</t>
-  </si>
-  <si>
-    <t>This resource is a non-persisted resource used to pass information into and back from an [operation](http://hl7.org/fhir/R4/operations.html). It has no other use, and there is no RESTful endpoint associated with it.</t>
-  </si>
-  <si>
-    <t>The parameters that may be used are defined by the OperationDefinition resource.</t>
+    <t>Parameters {http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCGenerateHealthCertificateParameters}
+QuestionnaireResponse {http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCQuestionnaireResponse}</t>
   </si>
   <si>
     <t>POST</t>
@@ -951,7 +942,7 @@
     <col min="24" max="24" width="168.1875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="49.01171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="25.36328125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
@@ -6952,20 +6943,18 @@
         <v>40</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>227</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>228</v>
+        <v>154</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>40</v>
@@ -7029,10 +7018,10 @@
         <v>40</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>40</v>
@@ -8190,7 +8179,7 @@
         <v>40</v>
       </c>
       <c r="R66" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>40</v>
@@ -9798,7 +9787,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -9821,19 +9810,19 @@
         <v>43</v>
       </c>
       <c r="J81" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="K81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>40</v>
@@ -9882,7 +9871,7 @@
         <v>40</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$113</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2810" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3920" uniqueCount="246">
   <si>
     <t>Path</t>
   </si>
@@ -459,7 +459,7 @@
     <t>An entry in a bundle resource - will either contain a resource or information about a resource (transactions and history only).</t>
   </si>
   <si>
-    <t xml:space="preserve">profile:resource.resolve()}
+    <t xml:space="preserve">type:resource}
 </t>
   </si>
   <si>
@@ -735,11 +735,47 @@
     <t>ddccParameters</t>
   </si>
   <si>
-    <t>Parameters {http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCGenerateHealthCertificateParameters}
-QuestionnaireResponse {http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCQuestionnaireResponse}</t>
+    <t xml:space="preserve">Parameters {http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCGenerateHealthCertificateParameters}
+</t>
+  </si>
+  <si>
+    <t>Operation Request or Response</t>
+  </si>
+  <si>
+    <t>This resource is a non-persisted resource used to pass information into and back from an [operation](http://hl7.org/fhir/R4/operations.html). It has no other use, and there is no RESTful endpoint associated with it.</t>
+  </si>
+  <si>
+    <t>The parameters that may be used are defined by the OperationDefinition resource.</t>
   </si>
   <si>
     <t>POST</t>
+  </si>
+  <si>
+    <t>ddccQuestionnaireResponse</t>
+  </si>
+  <si>
+    <t>Form
+QuestionnaireAnswersForm Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QuestionnaireResponse {http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCQuestionnaireResponse}
+</t>
+  </si>
+  <si>
+    <t>SDC Questionnaire Response</t>
+  </si>
+  <si>
+    <t>Sets expectations for supported capabilities for questionnaire responses for SDC-conformant systems.</t>
+  </si>
+  <si>
+    <t>The QuestionnaireResponse contains enough information about the questions asked and their organization that it can be interpreted somewhat independently from the Questionnaire it is based on.  I.e. You don't need access to the Questionnaire in order to extract basic information from a QuestionnaireResponse.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+  </si>
+  <si>
+    <t>Observation[moodCode=EVN]</t>
   </si>
   <si>
     <t>Bundle.signature</t>
@@ -907,7 +943,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM81"/>
+  <dimension ref="A1:AM113"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -917,8 +953,8 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="39.00390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="15.9609375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.21484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="2" max="2" width="27.1484375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="31.30078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -942,7 +978,7 @@
     <col min="24" max="24" width="168.1875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="49.01171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="25.36328125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
@@ -952,7 +988,7 @@
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="28.1484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="28.84375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="42.97265625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2749,7 +2785,7 @@
         <v>42</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>40</v>
@@ -6269,10 +6305,10 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>40</v>
@@ -6943,18 +6979,20 @@
         <v>40</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>227</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>154</v>
+        <v>228</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>40</v>
@@ -7018,10 +7056,10 @@
         <v>40</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>40</v>
@@ -8179,7 +8217,7 @@
         <v>40</v>
       </c>
       <c r="R66" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>40</v>
@@ -9787,9 +9825,11 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="B81" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="C81" t="s" s="2">
         <v>40</v>
       </c>
@@ -9810,20 +9850,16 @@
         <v>43</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>230</v>
+        <v>107</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>231</v>
+        <v>137</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>40</v>
       </c>
@@ -9871,35 +9907,3567 @@
         <v>40</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>229</v>
+        <v>136</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI81" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI85" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="AJ81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM81" t="s" s="2">
+      <c r="AJ85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M100" s="2"/>
+      <c r="N100" s="2"/>
+      <c r="O100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
+      <c r="O101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
+      <c r="O102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2"/>
+      <c r="O103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P103" s="2"/>
+      <c r="Q103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F104" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
+      <c r="O104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P104" s="2"/>
+      <c r="Q104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
+      <c r="O105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="106" hidden="true">
+      <c r="A106" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N106" s="2"/>
+      <c r="O106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P106" s="2"/>
+      <c r="Q106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="107" hidden="true">
+      <c r="A107" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F107" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P107" s="2"/>
+      <c r="Q107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="108" hidden="true">
+      <c r="A108" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F108" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
+      <c r="O108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P108" s="2"/>
+      <c r="Q108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="109" hidden="true">
+      <c r="A109" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F109" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
+      <c r="O109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P109" s="2"/>
+      <c r="Q109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="110" hidden="true">
+      <c r="A110" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F110" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N110" s="2"/>
+      <c r="O110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P110" s="2"/>
+      <c r="Q110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="111" hidden="true">
+      <c r="A111" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F111" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N111" s="2"/>
+      <c r="O111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P111" s="2"/>
+      <c r="Q111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="112" hidden="true">
+      <c r="A112" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F112" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="N112" s="2"/>
+      <c r="O112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P112" s="2"/>
+      <c r="Q112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="113" hidden="true">
+      <c r="A113" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F113" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="O113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P113" s="2"/>
+      <c r="Q113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM113" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM81">
+  <autoFilter ref="A1:AM113">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9909,7 +13477,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI80">
+  <conditionalFormatting sqref="A2:AI112">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-06T16:40:07+00:00</t>
+    <t>2021-09-07T22:17:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T22:17:02+00:00</t>
+    <t>2021-09-08T17:02:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-08T17:02:38+00:00</t>
+    <t>2021-09-08T17:47:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-08T17:47:26+00:00</t>
+    <t>2021-09-10T17:11:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-10T17:11:50+00:00</t>
+    <t>2021-09-13T04:33:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -872,7 +872,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}sdcqr-1:Subject SHOULD be present (searching is difficult without subject).  Almost all QuestionnaireResponses should be with respect to some sort of subject. {subject.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}sdcqr-1:Subject SHOULD be present (searching is difficult without subject).  Almost all QuestionnaireResponses should be with respect to some sort of subject. {subject.exists()}sdcqr-2:When repeats=true for a group, it'll be represented with multiple items with the same linkId in the QuestionnaireResponse.  For a question, it'll be represented by a single item with that linkId with multiple answers. {(QuestionnaireResponse|repeat(answer|item)).select(item.where(answer.value.exists()).linkId.isDistinct()).allTrue()}</t>
   </si>
   <si>
     <t>Observation[moodCode=EVN]</t>

--- a/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-13T04:33:50+00:00</t>
+    <t>2021-09-13T18:22:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-13T18:22:00+00:00</t>
+    <t>2021-09-14T16:43:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T16:43:46+00:00</t>
+    <t>2021-09-14T17:14:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T17:14:13+00:00</t>
+    <t>2021-09-23T15:43:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-23T15:43:05+00:00</t>
+    <t>2021-10-04T20:34:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T20:34:50+00:00</t>
+    <t>2021-10-04T21:05:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T21:05:20+00:00</t>
+    <t>2021-10-04T21:17:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T21:17:26+00:00</t>
+    <t>2021-10-06T12:30:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-06T12:30:04+00:00</t>
+    <t>2021-10-25T19:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-25T19:36:06+00:00</t>
+    <t>2021-10-25T20:35:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-25T20:35:22+00:00</t>
+    <t>2021-10-27T16:26:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-11T22:15:15+00:00</t>
+    <t>2021-11-11T22:17:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-11T22:17:18+00:00</t>
+    <t>2021-11-12T14:05:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T14:05:38+00:00</t>
+    <t>2021-11-12T14:18:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T14:18:21+00:00</t>
+    <t>2021-11-18T20:40:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
